--- a/6月作成後.xlsx
+++ b/6月作成後.xlsx
@@ -397,17 +397,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景山</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>金平</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景山</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>北原</t>
         </is>
       </c>
     </row>
@@ -429,17 +429,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>景山</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>中林</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景山</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>北原</t>
         </is>
       </c>
     </row>
@@ -469,12 +469,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>中林</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>中道</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中林</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -489,17 +489,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>藤原</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中林</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>岡崎</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>藤原</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>中林</t>
         </is>
       </c>
     </row>
@@ -509,17 +509,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>景山</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>北原</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>上田</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>橋本</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中道</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>上田</t>
         </is>
       </c>
     </row>
@@ -569,17 +569,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景山</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>岡崎</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>橋本</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>景山</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>中林</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>中道</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>景山</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>北原</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>上田</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>中道</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>金平</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>上田</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>中林</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -689,17 +689,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>北原</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>岡崎</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>橋本</t>
         </is>
       </c>
     </row>
@@ -709,17 +709,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>藤原</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中道</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>上田</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>橋本</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金平</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>藤原</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金平</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>中道</t>
         </is>
       </c>
     </row>
@@ -789,17 +789,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>中林</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>橋本</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>岡崎</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>川上</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>岡崎</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>橋本</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>上田</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>藤原</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>上田</t>
         </is>
       </c>
     </row>
